--- a/Descripcion_Proyecto.xlsx
+++ b/Descripcion_Proyecto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="109">
   <si>
     <t>DESCRIPCIÓN DEL PROYECTO</t>
   </si>
@@ -35,9 +35,6 @@
     <t>TABLAS</t>
   </si>
   <si>
-    <t>EMPLEADO</t>
-  </si>
-  <si>
     <t>CAMPOS</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>ADRS</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -114,6 +108,249 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>Representa información de cada sucursal del negocio.</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_QUANTITY</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>INVOICE_NUMBER</t>
+  </si>
+  <si>
+    <t>I_NUM</t>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>REGISTERED_BY</t>
+  </si>
+  <si>
+    <t>REGBY</t>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD</t>
+  </si>
+  <si>
+    <t>PAY_MET</t>
+  </si>
+  <si>
+    <t>TINYINT(10)</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>DECIMAL(15,2)</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Datos de la factura asociada a un cliente y registrada por un empleado, el campo status refleja si la factura está abonada o pendiente de pago.</t>
+  </si>
+  <si>
+    <t>TABLAS DE RELACIÓN INTERMEDIA</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>VARCHAR(60)</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>PNUM</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>CHAR(4)</t>
+  </si>
+  <si>
+    <t>PK,AI</t>
+  </si>
+  <si>
+    <t>NN,UQ</t>
+  </si>
+  <si>
+    <t>FISCAL_CONDITION</t>
+  </si>
+  <si>
+    <t>FCON</t>
+  </si>
+  <si>
+    <t>TINYINT(15)</t>
+  </si>
+  <si>
+    <t>Información de cada cliente, con detalle de su condición fiscal, lo cual afectará a la confección de la factura</t>
+  </si>
+  <si>
+    <t>INVOICE_TYPE</t>
+  </si>
+  <si>
+    <t>I_TYPE</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>Condición fiscal del cliente, pudiendo ser consumidor final, responsable inscripto, monotributista, exento, etc</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>Contiene información de las distintas ciudades y provincias con su código postal.</t>
+  </si>
+  <si>
+    <t>ZIP_CODE</t>
+  </si>
+  <si>
+    <t>ZC</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>PROVINCE</t>
+  </si>
+  <si>
+    <t>PROV</t>
+  </si>
+  <si>
+    <t>PK,UQ</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>Métodos de pago, entre los que pueden existir efectivo, débito, credito, transferencias, cheques, billeteras virtuales</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>Información de productos con descripción, asociado a quien creó el producto, categoría y marca</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>BRC</t>
+  </si>
+  <si>
+    <t>BRD</t>
+  </si>
+  <si>
+    <t>TINYINT(255)</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>TINYINT(50)</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>CRT_BY</t>
+  </si>
+  <si>
+    <t>Marcas, puede ser de producción propia o terceros.</t>
+  </si>
+  <si>
+    <t>SUPPLIER_CONTACT</t>
+  </si>
+  <si>
+    <t>SUPPCON</t>
+  </si>
+  <si>
+    <t>Categoría de los productos dentro de la empresa.</t>
+  </si>
+  <si>
+    <t>INVOICE_PRODUCTS_DETAIL</t>
+  </si>
+  <si>
+    <t>Contiene el detalle de la cantidad de productos y su precio unitario por factura.</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PRODUCT_CODE</t>
+  </si>
+  <si>
+    <t>INV_NUM</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>BRANCH_ID</t>
+  </si>
+  <si>
+    <t>BRC_ID</t>
+  </si>
+  <si>
+    <t>PRODUCTS_STORED</t>
+  </si>
+  <si>
+    <t>Información sobre la cantidad de cada producto en cada sucursal</t>
   </si>
 </sst>
 </file>
@@ -305,37 +542,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -364,13 +574,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -381,56 +637,105 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -710,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A60" activeCellId="6" sqref="A6:E6 A17:D17 A25:D25 A36:D36 A47:D47 A53:D53 A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,182 +1028,1221 @@
     <col min="3" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="J16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="K16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="H17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="K17" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="H18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D34" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="1:4" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="19" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+    </row>
+    <row r="67" spans="1:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="18" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="D74" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C81" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>29</v>
+      <c r="D81" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="28">
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:D15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:D23">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:D34">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:D45 A47">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:D51">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:D58 A61">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:D64">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:D75">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:K12">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D82">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:D88">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:K19">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Descripcion_Proyecto.xlsx
+++ b/Descripcion_Proyecto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="114">
   <si>
     <t>DESCRIPCIÓN DEL PROYECTO</t>
   </si>
@@ -351,6 +351,21 @@
   </si>
   <si>
     <t>Información sobre la cantidad de cada producto en cada sucursal</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>cuit</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>PK,NN,AI</t>
   </si>
 </sst>
 </file>
@@ -542,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -575,6 +590,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -593,54 +633,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1015,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A60" activeCellId="6" sqref="A6:E6 A17:D17 A25:D25 A36:D36 A47:D47 A53:D53 A60:D60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,30 +1039,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1079,43 +1083,43 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="2"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1274,12 +1278,12 @@
       <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
@@ -1294,12 +1298,12 @@
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H16" s="3" t="s">
@@ -1316,12 +1320,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="H17" s="7" t="s">
         <v>100</v>
       </c>
@@ -1438,26 +1442,26 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -1557,84 +1561,82 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="D35" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-    </row>
-    <row r="37" spans="1:4" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>50</v>
@@ -1645,13 +1647,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
@@ -1659,13 +1661,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>25</v>
@@ -1673,576 +1675,626 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-    </row>
-    <row r="48" spans="1:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="12" t="s">
+      <c r="B54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
+      <c r="D54" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="D60" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="11" t="s">
+      <c r="D61" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
+      <c r="D62" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-    </row>
-    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="25" t="s">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="9" t="s">
+      <c r="B67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D67" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="B68" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+      <c r="D68" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-    </row>
-    <row r="67" spans="1:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="21" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="1:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>88</v>
+        <v>68</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="B78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="11" t="s">
+      <c r="D78" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D79" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="25" t="s">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B84" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
+      <c r="D85" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="27" t="s">
+      <c r="D86" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="24" t="s">
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D90" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="9" t="s">
+      <c r="B91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="11" t="s">
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="12" t="s">
+      <c r="B92" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D92" s="13" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:D57"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:D15">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D23">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:D34">
-    <cfRule type="expression" dxfId="13" priority="14">
+  <conditionalFormatting sqref="A28:D35">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:D45 A47">
-    <cfRule type="expression" dxfId="12" priority="13">
+  <conditionalFormatting sqref="A40:D48 A50">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D51">
-    <cfRule type="expression" dxfId="11" priority="12">
+  <conditionalFormatting sqref="A53:D54">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:D58 A61">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="A60:D62 A65">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D64">
-    <cfRule type="expression" dxfId="9" priority="10">
+  <conditionalFormatting sqref="A67:D68">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:D75">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="A73:D79">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="7" priority="8">
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K12">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:D82">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A84:D86">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A88">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:D88">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A91:D92">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:K19">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Descripcion_Proyecto.xlsx
+++ b/Descripcion_Proyecto.xlsx
@@ -591,53 +591,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,87 +1039,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="2"/>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1278,12 +1278,12 @@
       <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
@@ -1298,12 +1298,12 @@
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H16" s="3" t="s">
@@ -1320,12 +1320,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="H17" s="7" t="s">
         <v>100</v>
       </c>
@@ -1340,12 +1340,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="H18" s="7" t="s">
         <v>105</v>
       </c>
@@ -1448,20 +1448,20 @@
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -1588,20 +1588,20 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:4" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -1740,20 +1740,20 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -1798,20 +1798,20 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
@@ -1828,7 +1828,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="14"/>
@@ -1882,20 +1882,20 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
@@ -1940,20 +1940,20 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -2068,20 +2068,20 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
@@ -2140,20 +2140,20 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
@@ -2199,18 +2199,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A89:D89"/>
@@ -2227,6 +2215,18 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:D15">
     <cfRule type="expression" dxfId="13" priority="16">
